--- a/2022_07_27/2022_07_27_NASDAQ100_MaxArea_Portfolio_250.xlsx
+++ b/2022_07_27/2022_07_27_NASDAQ100_MaxArea_Portfolio_250.xlsx
@@ -5,17 +5,29 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\investments_f\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\investments_f\2022_07_27\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A409C8-CA9A-44F6-8C0E-6CDEE3FE7438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBB4411-DEEE-4F9D-BC3B-822B5E4ED25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -672,15 +684,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CW2"/>
+  <dimension ref="A1:CW5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BS1" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AK3" sqref="AK3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" customWidth="1"/>
+    <col min="1" max="1" width="6.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.81640625" customWidth="1"/>
     <col min="3" max="3" width="5.7265625" customWidth="1"/>
     <col min="4" max="4" width="4.1796875" customWidth="1"/>
@@ -1391,6 +1403,418 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:101">
+      <c r="A3">
+        <f>A2/233.02</f>
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:BM3" si="0">B2/233.02</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.24290389433941698</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.45101843596779556</v>
+      </c>
+      <c r="AL3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <f t="shared" ref="BN3:CW3" si="1">BN2/233.02</f>
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <f t="shared" si="1"/>
+        <v>1.5246804575820167E-2</v>
+      </c>
+      <c r="BR3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CK3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CM3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CN3">
+        <f t="shared" si="1"/>
+        <v>2.0889860714676498E-2</v>
+      </c>
+      <c r="CO3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CP3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CQ3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CR3">
+        <f t="shared" si="1"/>
+        <v>0.26994100440229102</v>
+      </c>
+      <c r="CS3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CT3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CU3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CV3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CW3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:101">
+      <c r="A5">
+        <f>SUM(2:2)</f>
+        <v>233.02000000000004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
